--- a/sample/hero.xlsx
+++ b/sample/hero.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>索引</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -321,6 +317,10 @@
   </si>
   <si>
     <t>int(Mount.Id)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id(Key)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -793,23 +793,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -845,23 +828,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1017,7 +983,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1035,106 +1001,106 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1142,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>10001</v>
@@ -1154,13 +1120,13 @@
         <v>1.81</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1168,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>10002</v>
@@ -1180,13 +1146,13 @@
         <v>1.86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1194,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1203,13 +1169,13 @@
         <v>1.72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1239,87 +1205,87 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
